--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:G658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17125,10 +17125,8 @@
           <t>$-93.0B</t>
         </is>
       </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G606" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="607">
@@ -17146,10 +17144,8 @@
       <c r="D607" t="inlineStr"/>
       <c r="E607" t="inlineStr"/>
       <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -17183,10 +17179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G608" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="609">
@@ -17220,10 +17214,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G609" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="610">
@@ -17257,10 +17249,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G610" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="611">
@@ -17294,10 +17284,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -17331,10 +17319,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -17364,10 +17350,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -17397,10 +17381,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -17430,10 +17412,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -17467,10 +17447,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G616" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="617">
@@ -17504,10 +17482,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -17537,10 +17513,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -17566,10 +17540,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -17595,10 +17567,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -17624,10 +17594,8 @@
       </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G621" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="622">
@@ -17653,10 +17621,8 @@
       </c>
       <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -17682,10 +17648,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -17711,48 +17675,54 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr"/>
+          <t>08:05 PM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Fed Golsbee Speech</t>
+        </is>
+      </c>
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr"/>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
+          <t>CB Leading Index MoMJAN</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G626" t="inlineStr">
         <is>
           <t>3</t>
@@ -17762,129 +17732,89 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C627" t="inlineStr"/>
       <c r="D627" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F627" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>-100Bcf</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr"/>
+      <c r="F627" t="inlineStr"/>
       <c r="G627" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D628" t="inlineStr"/>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
       <c r="G629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C630" t="inlineStr"/>
       <c r="D630" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.07M</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
       <c r="G630" t="inlineStr">
         <is>
           <t>2</t>
@@ -17894,30 +17824,22 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-3.035M</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr"/>
+      <c r="F631" t="inlineStr"/>
       <c r="G631" t="inlineStr">
         <is>
           <t>2</t>
@@ -17927,55 +17849,43 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+      <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
           <t>3</t>
@@ -17985,26 +17895,22 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F634" t="inlineStr"/>
       <c r="G634" t="inlineStr">
         <is>
           <t>3</t>
@@ -18014,26 +17920,22 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="F635" t="inlineStr"/>
       <c r="G635" t="inlineStr">
         <is>
           <t>3</t>
@@ -18043,63 +17945,47 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr"/>
+      <c r="F636" t="inlineStr"/>
       <c r="G636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="inlineStr">
         <is>
           <t>3</t>
@@ -18109,26 +17995,22 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>3</t>
@@ -18138,30 +18020,22 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
           <t>3</t>
@@ -18171,26 +18045,22 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F640" t="inlineStr"/>
       <c r="G640" t="inlineStr">
         <is>
           <t>3</t>
@@ -18200,63 +18070,47 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="inlineStr">
         <is>
           <t>3</t>
@@ -18266,43 +18120,31 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -18316,44 +18158,84 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B645" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B646" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C646" t="inlineStr"/>
-      <c r="D646" t="inlineStr"/>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="E646" t="inlineStr"/>
-      <c r="F646" t="inlineStr"/>
-      <c r="G646" t="inlineStr"/>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
-      <c r="F647" t="inlineStr"/>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G647" t="inlineStr">
         <is>
           <t>2</t>
@@ -18363,37 +18245,53 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B648" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Existing Home SalesJAN</t>
+        </is>
+      </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>4.24M</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
-      <c r="G648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
       <c r="D649" t="inlineStr">
         <is>
-          <t>-12.6</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G649" t="inlineStr">
@@ -18410,19 +18308,23 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -18434,22 +18336,30 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G651" t="inlineStr">
         <is>
           <t>3</t>
@@ -18459,22 +18369,30 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
       <c r="D652" t="inlineStr">
         <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -18484,22 +18402,30 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr">
         <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G653" t="inlineStr">
         <is>
           <t>3</t>
@@ -18509,18 +18435,30 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr"/>
-      <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G654" t="inlineStr">
         <is>
           <t>3</t>
@@ -18530,1560 +18468,70 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B655" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
-      <c r="G655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr"/>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
-      <c r="G657" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
+          <t>Monday February 24 2025</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
+      <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
-      <c r="G660" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
-      <c r="G662" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
-      <c r="G663" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G664" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G665" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G666" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E667" t="inlineStr"/>
-      <c r="F667" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G667" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr"/>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr"/>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
-      <c r="G671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr"/>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>08:05 PM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr"/>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
-      <c r="G701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr"/>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -19825,16 +19825,20 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>6.09%</t>
+        </is>
+      </c>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19846,13 +19850,13 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/20</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C712" t="inlineStr"/>
       <c r="D712" t="inlineStr">
         <is>
-          <t>6.09%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E712" t="inlineStr"/>
@@ -19871,13 +19875,13 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/20</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -19896,13 +19900,13 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
-          <t>-0.184M</t>
+          <t>0.872M</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -19921,13 +19925,13 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>0.872M</t>
+          <t>-0.009M</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -19946,13 +19950,13 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr">
         <is>
-          <t>-0.009M</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19971,13 +19975,13 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr">
         <is>
-          <t>0.135M</t>
+          <t>0.18M</t>
         </is>
       </c>
       <c r="E717" t="inlineStr"/>
@@ -19996,13 +20000,13 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
-          <t>0.18M</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E718" t="inlineStr"/>
@@ -20021,13 +20025,13 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>0.159M</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E719" t="inlineStr"/>
@@ -20041,25 +20045,21 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
+      <c r="D720" t="inlineStr"/>
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G737"/>
+  <dimension ref="A1:G744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18761,68 +18761,52 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr"/>
+          <t>08:50 PM</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Fed Bowman Speech</t>
+        </is>
+      </c>
       <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr"/>
-      <c r="G668" t="inlineStr"/>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
+          <t>Tuesday February 18 2025</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
       <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
+      <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G669" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexFEB</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
         <is>
           <t>2</t>
@@ -18832,18 +18816,26 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>08:50 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>NY Empire State Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-12.6</t>
+        </is>
+      </c>
       <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr"/>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="G671" t="inlineStr">
         <is>
           <t>2</t>
@@ -18853,50 +18845,50 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NAHB Housing Market IndexFEB</t>
         </is>
       </c>
       <c r="C672" t="inlineStr"/>
       <c r="D672" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:50 PM</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
+      <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr"/>
       <c r="G673" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18908,13 +18900,13 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C674" t="inlineStr"/>
       <c r="D674" t="inlineStr">
         <is>
-          <t>4.185%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E674" t="inlineStr"/>
@@ -18928,16 +18920,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>4.025%</t>
+        </is>
+      </c>
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr"/>
       <c r="G675" t="inlineStr">
@@ -18949,106 +18945,98 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>4.185%</t>
+        </is>
+      </c>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr"/>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsDEC</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
+      <c r="D677" t="inlineStr"/>
       <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
+      <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
+          <t>Wednesday February 19 2025</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr"/>
       <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
+      <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
+          <t>Net Long-term TIC FlowsDEC</t>
         </is>
       </c>
       <c r="C680" t="inlineStr"/>
       <c r="D680" t="inlineStr">
         <is>
-          <t>6.95%</t>
+          <t>$79B</t>
         </is>
       </c>
       <c r="E680" t="inlineStr"/>
@@ -19062,18 +19050,18 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
+          <t>Foreign Bond InvestmentDEC</t>
         </is>
       </c>
       <c r="C681" t="inlineStr"/>
       <c r="D681" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>$-15.8B</t>
         </is>
       </c>
       <c r="E681" t="inlineStr"/>
@@ -19087,18 +19075,18 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
+          <t>Overall Net Capital FlowsDEC</t>
         </is>
       </c>
       <c r="C682" t="inlineStr"/>
       <c r="D682" t="inlineStr">
         <is>
-          <t>230.0</t>
+          <t>$159.9B</t>
         </is>
       </c>
       <c r="E682" t="inlineStr"/>
@@ -19117,20 +19105,20 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
+          <t>MBA 30-Year Mortgage RateFEB/14</t>
         </is>
       </c>
       <c r="C683" t="inlineStr"/>
       <c r="D683" t="inlineStr">
         <is>
-          <t>640.6</t>
+          <t>6.95%</t>
         </is>
       </c>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr"/>
       <c r="G683" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19142,13 +19130,13 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/14</t>
+          <t>MBA Mortgage ApplicationsFEB/14</t>
         </is>
       </c>
       <c r="C684" t="inlineStr"/>
       <c r="D684" t="inlineStr">
         <is>
-          <t>153.1</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E684" t="inlineStr"/>
@@ -19162,87 +19150,75 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Building Permits PrelJAN</t>
+          <t>MBA Mortgage Market IndexFEB/14</t>
         </is>
       </c>
       <c r="C685" t="inlineStr"/>
       <c r="D685" t="inlineStr">
         <is>
-          <t>1.482M</t>
+          <t>230.0</t>
         </is>
       </c>
       <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
+      <c r="F685" t="inlineStr"/>
       <c r="G685" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Housing StartsJAN</t>
+          <t>MBA Mortgage Refinance IndexFEB/14</t>
         </is>
       </c>
       <c r="C686" t="inlineStr"/>
       <c r="D686" t="inlineStr">
         <is>
-          <t>1.499M</t>
+          <t>640.6</t>
         </is>
       </c>
       <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
+      <c r="F686" t="inlineStr"/>
       <c r="G686" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelJAN</t>
+          <t>MBA Purchase IndexFEB/14</t>
         </is>
       </c>
       <c r="C687" t="inlineStr"/>
       <c r="D687" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>153.1</t>
         </is>
       </c>
       <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="F687" t="inlineStr"/>
       <c r="G687" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19254,274 +19230,266 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Housing Starts MoMJAN</t>
+          <t>Building Permits PrelJAN</t>
         </is>
       </c>
       <c r="C688" t="inlineStr"/>
       <c r="D688" t="inlineStr">
         <is>
-          <t>15.8%</t>
+          <t>1.482M</t>
         </is>
       </c>
       <c r="E688" t="inlineStr"/>
       <c r="F688" t="inlineStr">
         <is>
-          <t>-9.0%</t>
+          <t>1.47M</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/15</t>
+          <t>Housing StartsJAN</t>
         </is>
       </c>
       <c r="C689" t="inlineStr"/>
       <c r="D689" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>1.499M</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>1.35M</t>
+        </is>
+      </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Building Permits MoM PrelJAN</t>
         </is>
       </c>
       <c r="C690" t="inlineStr"/>
       <c r="D690" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Housing Starts MoMJAN</t>
         </is>
       </c>
       <c r="C691" t="inlineStr"/>
       <c r="D691" t="inlineStr">
         <is>
-          <t>4.900%</t>
+          <t>15.8%</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>-9.0%</t>
+        </is>
+      </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr"/>
+          <t>07:25 PM</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Redbook YoYFEB/15</t>
+        </is>
+      </c>
       <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr"/>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>5.3%</t>
+        </is>
+      </c>
       <c r="E692" t="inlineStr"/>
       <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr"/>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C694" t="inlineStr"/>
       <c r="D694" t="inlineStr">
         <is>
-          <t>9.043M</t>
+          <t>4.900%</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
       <c r="F694" t="inlineStr"/>
       <c r="G694" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
+          <t>Thursday February 20 2025</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
       <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+      <c r="D695" t="inlineStr"/>
       <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
+      <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="F696" t="inlineStr"/>
       <c r="G696" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
+          <t>API Crude Oil Stock ChangeFEB/14</t>
         </is>
       </c>
       <c r="C697" t="inlineStr"/>
       <c r="D697" t="inlineStr">
         <is>
-          <t>1850K</t>
+          <t>9.043M</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
+      <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
+      <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
+      <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19533,20 +19501,24 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsFEB</t>
+          <t>Initial Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C699" t="inlineStr"/>
       <c r="D699" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>220.0K</t>
+        </is>
+      </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19558,20 +19530,24 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
+          <t>Philadelphia Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19583,17 +19559,21 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentFEB</t>
+          <t>Continuing Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>1850K</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>1879.0K</t>
+        </is>
+      </c>
       <c r="G701" t="inlineStr">
         <is>
           <t>3</t>
@@ -19608,17 +19588,21 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/15</t>
         </is>
       </c>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>216K</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr"/>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>219.0K</t>
+        </is>
+      </c>
       <c r="G702" t="inlineStr">
         <is>
           <t>3</t>
@@ -19633,13 +19617,13 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidFEB</t>
+          <t>Philly Fed Business ConditionsFEB</t>
         </is>
       </c>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -19653,47 +19637,47 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>08:05 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Fed Golsbee Speech</t>
+          <t>Philly Fed CAPEX IndexFEB</t>
         </is>
       </c>
       <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="E704" t="inlineStr"/>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJAN</t>
+          <t>Philly Fed EmploymentFEB</t>
         </is>
       </c>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F705" t="inlineStr"/>
       <c r="G705" t="inlineStr">
         <is>
           <t>3</t>
@@ -19703,18 +19687,18 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
+          <t>Philly Fed New OrdersFEB</t>
         </is>
       </c>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
-          <t>-100Bcf</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -19728,16 +19712,20 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Philly Fed Prices PaidFEB</t>
         </is>
       </c>
       <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>31.9</t>
+        </is>
+      </c>
       <c r="E707" t="inlineStr"/>
       <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr">
@@ -19749,12 +19737,12 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:05 PM</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C708" t="inlineStr"/>
@@ -19763,77 +19751,77 @@
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C709" t="inlineStr"/>
       <c r="D709" t="inlineStr">
         <is>
-          <t>4.07M</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr"/>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C710" t="inlineStr"/>
       <c r="D710" t="inlineStr">
         <is>
-          <t>-3.035M</t>
+          <t>-100Bcf</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
       <c r="G710" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/20</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
+      <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr">
@@ -19845,20 +19833,16 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/20</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
+      <c r="D712" t="inlineStr"/>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr">
@@ -19875,20 +19859,20 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C713" t="inlineStr"/>
       <c r="D713" t="inlineStr">
         <is>
-          <t>-0.184M</t>
+          <t>4.07M</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19900,20 +19884,20 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
-          <t>0.872M</t>
+          <t>-3.035M</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19925,13 +19909,13 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>-0.009M</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -19950,13 +19934,13 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr">
         <is>
-          <t>0.135M</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19975,13 +19959,13 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr">
         <is>
-          <t>0.18M</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E717" t="inlineStr"/>
@@ -20000,13 +19984,13 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
-          <t>0.159M</t>
+          <t>0.872M</t>
         </is>
       </c>
       <c r="E718" t="inlineStr"/>
@@ -20025,13 +20009,13 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>0.082M</t>
+          <t>-0.009M</t>
         </is>
       </c>
       <c r="E719" t="inlineStr"/>
@@ -20045,39 +20029,43 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr"/>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>0.135M</t>
+        </is>
+      </c>
       <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>30-Year TIPS Auction</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>2.055%</t>
+          <t>0.18M</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -20091,31 +20079,43 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>0.159M</t>
+        </is>
+      </c>
       <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/19</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E723" t="inlineStr"/>
@@ -20129,26 +20129,18 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="D724" t="inlineStr"/>
       <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr">
         <is>
           <t>2</t>
@@ -20158,146 +20150,102 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
+      <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr"/>
       <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
+      <c r="D726" t="inlineStr"/>
       <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
+      <c r="D727" t="inlineStr"/>
       <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+      <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
       <c r="D728" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
+      <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E729" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+      <c r="D729" t="inlineStr"/>
+      <c r="E729" t="inlineStr"/>
+      <c r="F729" t="inlineStr"/>
       <c r="G729" t="inlineStr">
         <is>
           <t>2</t>
@@ -20307,99 +20255,87 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E730" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr"/>
       <c r="F730" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E732" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr"/>
       <c r="F732" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20411,98 +20347,309 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr"/>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr"/>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>-1.7%</t>
+        </is>
+      </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+        </is>
+      </c>
       <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr"/>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Expectations FinalFEB</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions FinalFEB</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalFEB</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Fed Jefferson Speech</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr"/>
+      <c r="E740" t="inlineStr"/>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Sunday February 23 2025</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
           <t>Monday February 24 2025</t>
         </is>
       </c>
-      <c r="B737" t="inlineStr"/>
-      <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr"/>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr"/>
+      <c r="B744" t="inlineStr"/>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G744"/>
+  <dimension ref="A1:G745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18925,13 +18925,13 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C675" t="inlineStr"/>
       <c r="D675" t="inlineStr">
         <is>
-          <t>4.025%</t>
+          <t>4.185%</t>
         </is>
       </c>
       <c r="E675" t="inlineStr"/>
@@ -18945,20 +18945,16 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>NOPA Crush Report</t>
         </is>
       </c>
       <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
+      <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr"/>
       <c r="G676" t="inlineStr">
@@ -18970,12 +18966,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C677" t="inlineStr"/>
@@ -18984,7 +18980,7 @@
       <c r="F677" t="inlineStr"/>
       <c r="G677" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -18996,16 +18992,20 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr"/>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>4.025%</t>
+        </is>
+      </c>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr"/>
       <c r="G678" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19366,21 +19366,21 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>NY Fed Treasury Purchases 22.5 to 30 yrs</t>
         </is>
       </c>
       <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E693" t="inlineStr"/>
+      <c r="D693" t="inlineStr"/>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
       <c r="F693" t="inlineStr"/>
       <c r="G693" t="inlineStr">
         <is>
@@ -19391,18 +19391,18 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C694" t="inlineStr"/>
       <c r="D694" t="inlineStr">
         <is>
-          <t>4.900%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -19416,75 +19416,79 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr"/>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>4.900%</t>
+        </is>
+      </c>
       <c r="E695" t="inlineStr"/>
       <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr"/>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
+          <t>Thursday February 20 2025</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr"/>
       <c r="C696" t="inlineStr"/>
       <c r="D696" t="inlineStr"/>
       <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
+      <c r="D697" t="inlineStr"/>
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr"/>
       <c r="G697" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>API Crude Oil Stock ChangeFEB/14</t>
         </is>
       </c>
       <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr"/>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>9.043M</t>
+        </is>
+      </c>
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="inlineStr">
@@ -19496,26 +19500,18 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
+      <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
+      <c r="F699" t="inlineStr"/>
       <c r="G699" t="inlineStr">
         <is>
           <t>2</t>
@@ -19530,19 +19526,19 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
+          <t>Initial Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C700" t="inlineStr"/>
       <c r="D700" t="inlineStr">
         <is>
-          <t>44.3</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
@@ -19559,24 +19555,24 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
+          <t>Philadelphia Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr">
         <is>
-          <t>1850K</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
       <c r="F701" t="inlineStr">
         <is>
-          <t>1879.0K</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19588,19 +19584,19 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
+          <t>Continuing Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr">
         <is>
-          <t>216K</t>
+          <t>1850K</t>
         </is>
       </c>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr">
         <is>
-          <t>219.0K</t>
+          <t>1879.0K</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -19617,17 +19613,21 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/15</t>
         </is>
       </c>
       <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
-          <t>46.3</t>
+          <t>216K</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>219.0K</t>
+        </is>
+      </c>
       <c r="G703" t="inlineStr">
         <is>
           <t>3</t>
@@ -19642,13 +19642,13 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
+          <t>Philly Fed Business ConditionsFEB</t>
         </is>
       </c>
       <c r="C704" t="inlineStr"/>
       <c r="D704" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>46.3</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -19667,13 +19667,13 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentFEB</t>
+          <t>Philly Fed CAPEX IndexFEB</t>
         </is>
       </c>
       <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -19692,13 +19692,13 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersFEB</t>
+          <t>Philly Fed EmploymentFEB</t>
         </is>
       </c>
       <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -19717,13 +19717,13 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidFEB</t>
+          <t>Philly Fed New OrdersFEB</t>
         </is>
       </c>
       <c r="C707" t="inlineStr"/>
       <c r="D707" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -19737,72 +19737,72 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>08:05 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Fed Golsbee Speech</t>
+          <t>Philly Fed Prices PaidFEB</t>
         </is>
       </c>
       <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>31.9</t>
+        </is>
+      </c>
       <c r="E708" t="inlineStr"/>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:05 PM</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMJAN</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
+          <t>CB Leading Index MoMJAN</t>
         </is>
       </c>
       <c r="C710" t="inlineStr"/>
       <c r="D710" t="inlineStr">
         <is>
-          <t>-100Bcf</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
-      <c r="F710" t="inlineStr"/>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G710" t="inlineStr">
         <is>
           <t>3</t>
@@ -19812,16 +19812,20 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>-100Bcf</t>
+        </is>
+      </c>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
       <c r="G711" t="inlineStr">
@@ -19838,7 +19842,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C712" t="inlineStr"/>
@@ -19854,25 +19858,21 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
+      <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19884,13 +19884,13 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C714" t="inlineStr"/>
       <c r="D714" t="inlineStr">
         <is>
-          <t>-3.035M</t>
+          <t>4.07M</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -19909,20 +19909,20 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/20</t>
+          <t>EIA Gasoline Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>6.09%</t>
+          <t>-3.035M</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
       <c r="G715" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19934,13 +19934,13 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/20</t>
+          <t>15-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>6.09%</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19959,13 +19959,13 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+          <t>30-Year Mortgage RateFEB/20</t>
         </is>
       </c>
       <c r="C717" t="inlineStr"/>
       <c r="D717" t="inlineStr">
         <is>
-          <t>-0.184M</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="E717" t="inlineStr"/>
@@ -19984,13 +19984,13 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
         </is>
       </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
-          <t>0.872M</t>
+          <t>-0.184M</t>
         </is>
       </c>
       <c r="E718" t="inlineStr"/>
@@ -20009,13 +20009,13 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>-0.009M</t>
+          <t>0.872M</t>
         </is>
       </c>
       <c r="E719" t="inlineStr"/>
@@ -20034,13 +20034,13 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>0.135M</t>
+          <t>-0.009M</t>
         </is>
       </c>
       <c r="E720" t="inlineStr"/>
@@ -20059,13 +20059,13 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0.18M</t>
+          <t>0.135M</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -20084,13 +20084,13 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>0.159M</t>
+          <t>0.18M</t>
         </is>
       </c>
       <c r="E722" t="inlineStr"/>
@@ -20109,13 +20109,13 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0.082M</t>
+          <t>0.159M</t>
         </is>
       </c>
       <c r="E723" t="inlineStr"/>
@@ -20129,152 +20129,148 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr"/>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>0.082M</t>
+        </is>
+      </c>
       <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>30-Year TIPS Auction</t>
+          <t>Fed Musalem Speech</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
+      <c r="D725" t="inlineStr"/>
       <c r="E725" t="inlineStr"/>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>30-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>2.055%</t>
+        </is>
+      </c>
       <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Fed Barr Speech</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr"/>
       <c r="C727" t="inlineStr"/>
       <c r="D727" t="inlineStr"/>
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/19</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
+      <c r="D728" t="inlineStr"/>
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr"/>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>$6.81T</t>
+        </is>
+      </c>
       <c r="E729" t="inlineStr"/>
       <c r="F729" t="inlineStr"/>
       <c r="G729" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>03:30 AM</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr">
         <is>
           <t>2</t>
@@ -20289,19 +20285,19 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G731" t="inlineStr">
@@ -20318,19 +20314,19 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E732" t="inlineStr"/>
       <c r="F732" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G732" t="inlineStr">
@@ -20342,29 +20338,29 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>4.24M</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20376,24 +20372,24 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C734" t="inlineStr"/>
       <c r="D734" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>4.24M</t>
         </is>
       </c>
       <c r="E734" t="inlineStr"/>
       <c r="F734" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20405,23 +20401,19 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E735" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr"/>
       <c r="F735" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
@@ -20438,28 +20430,28 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C736" t="inlineStr"/>
       <c r="D736" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20471,23 +20463,23 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -20504,23 +20496,23 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
@@ -20537,23 +20529,23 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C739" t="inlineStr"/>
       <c r="D739" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
@@ -20565,33 +20557,45 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>Fed Jefferson Speech</t>
         </is>
       </c>
       <c r="C741" t="inlineStr"/>
@@ -20600,7 +20604,7 @@
       <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20612,7 +20616,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
         </is>
       </c>
       <c r="C742" t="inlineStr"/>
@@ -20628,20 +20632,28 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
+        </is>
+      </c>
       <c r="C743" t="inlineStr"/>
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr"/>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
+          <t>Sunday February 23 2025</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -20651,6 +20663,19 @@
       <c r="F744" t="inlineStr"/>
       <c r="G744" t="inlineStr"/>
     </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Monday February 24 2025</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr"/>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr"/>
+      <c r="E745" t="inlineStr"/>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G745"/>
+  <dimension ref="A1:G746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18134,10 +18134,14 @@
           <t>Retail Sales MoMJAN</t>
         </is>
       </c>
-      <c r="C645" t="inlineStr"/>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -18167,10 +18171,14 @@
           <t>Export Prices MoMJAN</t>
         </is>
       </c>
-      <c r="C646" t="inlineStr"/>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -18200,10 +18208,14 @@
           <t>Import Prices MoMJAN</t>
         </is>
       </c>
-      <c r="C647" t="inlineStr"/>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -18233,10 +18245,14 @@
           <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
-      <c r="C648" t="inlineStr"/>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-0.8%</t>
+        </is>
+      </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -18266,10 +18282,14 @@
           <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
-      <c r="C649" t="inlineStr"/>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -18299,10 +18319,14 @@
           <t>Export Prices YoYJAN</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="E650" t="inlineStr"/>
@@ -18328,7 +18352,11 @@
           <t>Import Prices YoYJAN</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr"/>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="D651" t="inlineStr">
         <is>
           <t>2.2%</t>
@@ -18357,10 +18385,14 @@
           <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
-      <c r="C652" t="inlineStr"/>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -18386,10 +18418,14 @@
           <t>Retail Sales YoYJAN</t>
         </is>
       </c>
-      <c r="C653" t="inlineStr"/>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -20676,6 +20712,31 @@
       <c r="F745" t="inlineStr"/>
       <c r="G745" t="inlineStr"/>
     </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Chicago Fed National Activity IndexJAN</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -18451,10 +18451,14 @@
           <t>Industrial Production MoMJAN</t>
         </is>
       </c>
-      <c r="C654" t="inlineStr"/>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -18484,10 +18488,14 @@
           <t>Capacity UtilizationJAN</t>
         </is>
       </c>
-      <c r="C655" t="inlineStr"/>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>77.8%</t>
+        </is>
+      </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>77.6%</t>
+          <t>77.5%</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -18517,10 +18525,14 @@
           <t>Industrial Production YoYJAN</t>
         </is>
       </c>
-      <c r="C656" t="inlineStr"/>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -18546,10 +18558,14 @@
           <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
-      <c r="C657" t="inlineStr"/>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
@@ -18579,10 +18595,14 @@
           <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr"/>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -18608,7 +18628,11 @@
           <t>Business Inventories MoMDEC</t>
         </is>
       </c>
-      <c r="C659" t="inlineStr"/>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="D659" t="inlineStr">
         <is>
           <t>0.1%</t>
@@ -18641,7 +18665,11 @@
           <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
-      <c r="C660" t="inlineStr"/>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="D660" t="inlineStr">
         <is>
           <t>0.4%</t>
@@ -18866,7 +18894,11 @@
           <t>-12.6</t>
         </is>
       </c>
-      <c r="E671" t="inlineStr"/>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr">
         <is>
           <t>2</t>
@@ -18895,7 +18927,11 @@
           <t>47</t>
         </is>
       </c>
-      <c r="E672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr">
         <is>
           <t>46</t>
@@ -19275,7 +19311,11 @@
           <t>1.482M</t>
         </is>
       </c>
-      <c r="E688" t="inlineStr"/>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>1.45M</t>
+        </is>
+      </c>
       <c r="F688" t="inlineStr">
         <is>
           <t>1.47M</t>
@@ -19304,7 +19344,11 @@
           <t>1.499M</t>
         </is>
       </c>
-      <c r="E689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>1.39M</t>
+        </is>
+      </c>
       <c r="F689" t="inlineStr">
         <is>
           <t>1.35M</t>
@@ -19571,7 +19615,11 @@
           <t>213K</t>
         </is>
       </c>
-      <c r="E700" t="inlineStr"/>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>216K</t>
+        </is>
+      </c>
       <c r="F700" t="inlineStr">
         <is>
           <t>220.0K</t>
@@ -19600,10 +19648,14 @@
           <t>44.3</t>
         </is>
       </c>
-      <c r="E701" t="inlineStr"/>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>25.5</t>
+        </is>
+      </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -19833,7 +19885,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="E710" t="inlineStr"/>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F710" t="inlineStr">
         <is>
           <t>0%</t>
@@ -19882,7 +19938,11 @@
         </is>
       </c>
       <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>4.250%</t>
+        </is>
+      </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="inlineStr">
@@ -19903,7 +19963,11 @@
         </is>
       </c>
       <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr">
@@ -20417,7 +20481,11 @@
           <t>4.24M</t>
         </is>
       </c>
-      <c r="E734" t="inlineStr"/>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>4.17M</t>
+        </is>
+      </c>
       <c r="F734" t="inlineStr">
         <is>
           <t>4.16M</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G746"/>
+  <dimension ref="A1:G747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20805,6 +20805,31 @@
         </is>
       </c>
     </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Dallas Fed Manufacturing IndexFEB</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G747"/>
+  <dimension ref="A1:G749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20830,6 +20830,48 @@
         </is>
       </c>
     </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr"/>
+      <c r="E749" t="inlineStr"/>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G749"/>
+  <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18702,7 +18702,11 @@
           <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
-      <c r="C661" t="inlineStr"/>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
       <c r="D661" t="inlineStr">
         <is>
           <t>480</t>
@@ -18727,7 +18731,11 @@
           <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
-      <c r="C662" t="inlineStr"/>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
       <c r="D662" t="inlineStr">
         <is>
           <t>586</t>
@@ -20724,7 +20732,11 @@
         </is>
       </c>
       <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr"/>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr">
@@ -20745,7 +20757,11 @@
         </is>
       </c>
       <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr"/>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="inlineStr"/>
       <c r="G743" t="inlineStr">
@@ -20872,6 +20888,27 @@
         </is>
       </c>
     </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr"/>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
